--- a/youngdo/henry_quant/model.xlsx
+++ b/youngdo/henry_quant/model.xlsx
@@ -566,10 +566,10 @@
         <v>1.5003</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2577</v>
+        <v>0.3003</v>
       </c>
       <c r="M2" t="n">
-        <v>32.4586</v>
+        <v>31.0964</v>
       </c>
       <c r="N2" t="n">
         <v>-4.796</v>
@@ -578,10 +578,10 @@
         <v>-3.4475</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.8958</v>
+        <v>-1.7625</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.1416</v>
+        <v>-1.1189</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -592,60 +592,60 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>001800</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>오리온홀딩스</t>
+          <t>KISCO홀딩스</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>필수소비재</t>
+          <t>소재</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0197</v>
+        <v>0.0249</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2203</v>
+        <v>0.1351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0969</v>
+        <v>0.1094</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0463</v>
+        <v>0.0309</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2254</v>
+        <v>0.2089</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8947</v>
+        <v>1.6491</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8641</v>
+        <v>2.1002</v>
       </c>
       <c r="K3" t="n">
-        <v>0.312</v>
+        <v>0.1822</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0486</v>
+        <v>0.7355</v>
       </c>
       <c r="M3" t="n">
-        <v>11.9887</v>
+        <v>34.9961</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.6245</v>
+        <v>-2.5942</v>
       </c>
       <c r="O3" t="n">
-        <v>-6.4995</v>
+        <v>-6.7764</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.8896</v>
+        <v>-2.8108</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.1298</v>
+        <v>-1.2926</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -656,12 +656,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>002030</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KISCO홀딩스</t>
+          <t>아세아</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -670,46 +670,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0249</v>
+        <v>0.0224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1351</v>
+        <v>0.1439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1094</v>
+        <v>0.0806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0309</v>
+        <v>0.0217</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2089</v>
+        <v>0.1972</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6491</v>
+        <v>1.4281</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1002</v>
+        <v>2.1971</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1822</v>
+        <v>0.1724</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7154</v>
+        <v>0.6447000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>35.1294</v>
+        <v>58.4629</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.5942</v>
+        <v>-2.1593</v>
       </c>
       <c r="O4" t="n">
-        <v>-6.7764</v>
+        <v>-6.1788</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.8716</v>
+        <v>-3.0691</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.3046</v>
+        <v>-1.2253</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -720,12 +720,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>002030</t>
+          <t>003030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아세아</t>
+          <t>세아제강지주</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -734,46 +734,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.0224</v>
+        <v>0.0557</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1439</v>
+        <v>0.2554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0806</v>
+        <v>0.1272</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0217</v>
+        <v>0.0097</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1972</v>
+        <v>0.4547</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4281</v>
+        <v>1.9949</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1971</v>
+        <v>2.0414</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1724</v>
+        <v>0.2372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6394</v>
+        <v>0.407</v>
       </c>
       <c r="M5" t="n">
-        <v>60.9438</v>
+        <v>31.9116</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.1593</v>
+        <v>-4.7535</v>
       </c>
       <c r="O5" t="n">
-        <v>-6.1788</v>
+        <v>-3.7426</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.0995</v>
+        <v>-2.5221</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.2327</v>
+        <v>-1.2582</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -784,60 +784,60 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>003030</t>
+          <t>004710</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>세아제강지주</t>
+          <t>한솔테크닉스</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>소재</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0557</v>
+        <v>0.0252</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2554</v>
+        <v>0.1819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1272</v>
+        <v>0.1149</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0097</v>
+        <v>0.0158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4547</v>
+        <v>0.4519</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9949</v>
+        <v>1.6688</v>
       </c>
       <c r="J6" t="n">
-        <v>2.0414</v>
+        <v>4.477</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2372</v>
+        <v>0.1248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2592</v>
+        <v>0.3261</v>
       </c>
       <c r="M6" t="n">
-        <v>13.2293</v>
+        <v>43.1672</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.7535</v>
+        <v>-2.3075</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.7426</v>
+        <v>-6.7251</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.5497</v>
+        <v>-2.2018</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.1075</v>
+        <v>-1.1561</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -848,60 +848,60 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>004710</t>
+          <t>008260</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>한솔테크닉스</t>
+          <t>NI스틸</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>소재</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0252</v>
+        <v>0.0743</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1819</v>
+        <v>0.2588</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1149</v>
+        <v>0.1983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0158</v>
+        <v>0.0157</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4519</v>
+        <v>0.9384</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6688</v>
+        <v>2.2361</v>
       </c>
       <c r="J7" t="n">
-        <v>4.477</v>
+        <v>3.1569</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1248</v>
+        <v>0.4414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2529</v>
+        <v>0.6098</v>
       </c>
       <c r="M7" t="n">
-        <v>44.4421</v>
+        <v>50.6875</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.3075</v>
+        <v>-5.1729</v>
       </c>
       <c r="O7" t="n">
-        <v>-6.7251</v>
+        <v>-1.6466</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.273</v>
+        <v>-3.0083</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.1693</v>
+        <v>-1.2049</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -912,60 +912,60 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>008260</t>
+          <t>009300</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NI스틸</t>
+          <t>삼아제약</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>소재</t>
+          <t>건강관리</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0743</v>
+        <v>0.0276</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2588</v>
+        <v>0.2933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1983</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0157</v>
+        <v>0.0246</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9384</v>
+        <v>0.5622</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2361</v>
+        <v>6.5102</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1569</v>
+        <v>5.0991</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4414</v>
+        <v>1.085</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6313</v>
+        <v>0.1361</v>
       </c>
       <c r="M8" t="n">
-        <v>53.0041</v>
+        <v>31.2493</v>
       </c>
       <c r="N8" t="n">
-        <v>-5.1729</v>
+        <v>-3.2452</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.6466</v>
+        <v>-6.7717</v>
       </c>
       <c r="P8" t="n">
-        <v>-3.0387</v>
+        <v>-1.6912</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.2122</v>
+        <v>-1.1999</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -976,60 +976,60 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>009300</t>
+          <t>011560</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼아제약</t>
+          <t>세보엠이씨</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>건강관리</t>
+          <t>산업재</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0276</v>
+        <v>0.0343</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2933</v>
+        <v>0.137</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.1361</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0246</v>
+        <v>0.055</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5622</v>
+        <v>0.5189</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5102</v>
+        <v>1.6911</v>
       </c>
       <c r="J9" t="n">
-        <v>5.0991</v>
+        <v>3.7833</v>
       </c>
       <c r="K9" t="n">
-        <v>1.085</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1003</v>
+        <v>0.2178</v>
       </c>
       <c r="M9" t="n">
-        <v>31.7131</v>
+        <v>45.7599</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.2452</v>
+        <v>-2.9813</v>
       </c>
       <c r="O9" t="n">
-        <v>-6.7717</v>
+        <v>-6.3286</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.7845</v>
+        <v>-2.5733</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.2164</v>
+        <v>-1.2657</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1040,60 +1040,60 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>011560</t>
+          <t>032640</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>세보엠이씨</t>
+          <t>LG유플러스</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>산업재</t>
+          <t>커뮤니케이션서비스</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0343</v>
+        <v>0.0206</v>
       </c>
       <c r="E10" t="n">
-        <v>0.137</v>
+        <v>0.7077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1361</v>
+        <v>0.1718</v>
       </c>
       <c r="G10" t="n">
-        <v>0.055</v>
+        <v>0.0623</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5189</v>
+        <v>0.5389</v>
       </c>
       <c r="I10" t="n">
-        <v>1.6911</v>
+        <v>1.3334</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7833</v>
+        <v>6.5248</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09429999999999999</v>
+        <v>0.3237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.129</v>
+        <v>-0.0152</v>
       </c>
       <c r="M10" t="n">
-        <v>38.6834</v>
+        <v>5.0988</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.9813</v>
+        <v>-3.9161</v>
       </c>
       <c r="O10" t="n">
-        <v>-6.3286</v>
+        <v>-7.2172</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.412</v>
+        <v>-0.7832</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1.2427</v>
+        <v>-1.1823</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1104,60 +1104,60 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>023910</t>
+          <t>054040</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>대한약품</t>
+          <t>한국컴퓨터</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>건강관리</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0292</v>
+        <v>0.0359</v>
       </c>
       <c r="E11" t="n">
-        <v>0.226</v>
+        <v>0.1767</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1275</v>
+        <v>0.123</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0234</v>
+        <v>0.0494</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7312</v>
+        <v>0.6379</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6854</v>
+        <v>3.8541</v>
       </c>
       <c r="J11" t="n">
-        <v>6.2707</v>
+        <v>4.4438</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8673999999999999</v>
+        <v>0.1796</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0485</v>
+        <v>0.797</v>
       </c>
       <c r="M11" t="n">
-        <v>15.4443</v>
+        <v>31.836</v>
       </c>
       <c r="N11" t="n">
-        <v>-3.1966</v>
+        <v>-2.6638</v>
       </c>
       <c r="O11" t="n">
-        <v>-6.8496</v>
+        <v>-7.2552</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.1897</v>
+        <v>-2.3553</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.1234</v>
+        <v>-1.272</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1168,60 +1168,60 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>032640</t>
+          <t>054670</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LG유플러스</t>
+          <t>대한뉴팜</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>커뮤니케이션서비스</t>
+          <t>건강관리</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0206</v>
+        <v>0.0494</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7077</v>
+        <v>0.5571</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1718</v>
+        <v>0.1164</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0623</v>
+        <v>0.0113</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5389</v>
+        <v>1.2095</v>
       </c>
       <c r="I12" t="n">
-        <v>1.3334</v>
+        <v>6.4307</v>
       </c>
       <c r="J12" t="n">
-        <v>6.5248</v>
+        <v>6.1215</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3237</v>
+        <v>0.6175</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0578</v>
+        <v>0.0463</v>
       </c>
       <c r="M12" t="n">
-        <v>-3.6445</v>
+        <v>19.0521</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.9161</v>
+        <v>-4.7505</v>
       </c>
       <c r="O12" t="n">
-        <v>-7.2172</v>
+        <v>-4.8374</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.3314</v>
+        <v>-0.9564</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1.1124</v>
+        <v>-1.1082</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1232,12 +1232,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>054040</t>
+          <t>069510</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한국컴퓨터</t>
+          <t>에스텍</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1246,46 +1246,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0359</v>
+        <v>0.0381</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1767</v>
+        <v>0.2197</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123</v>
+        <v>0.2201</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0494</v>
+        <v>0.0362</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6379</v>
+        <v>0.6318</v>
       </c>
       <c r="I13" t="n">
-        <v>3.8541</v>
+        <v>1.5876</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4438</v>
+        <v>4.1438</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1796</v>
+        <v>0.2146</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5304</v>
+        <v>0.1453</v>
       </c>
       <c r="M13" t="n">
-        <v>31.1129</v>
+        <v>28.2143</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.6638</v>
+        <v>-3.7036</v>
       </c>
       <c r="O13" t="n">
-        <v>-7.2552</v>
+        <v>-7.3971</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.2362</v>
+        <v>-1.1576</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.2554</v>
+        <v>-1.2295</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1296,12 +1296,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>069510</t>
+          <t>079940</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>에스텍</t>
+          <t>가비아</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1310,46 +1310,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0381</v>
+        <v>0.0374</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2197</v>
+        <v>0.3288</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2201</v>
+        <v>0.1976</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0362</v>
+        <v>0.005</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6318</v>
+        <v>0.756</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5876</v>
+        <v>2.6356</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1438</v>
+        <v>5.0533</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2146</v>
+        <v>0.7647</v>
       </c>
       <c r="L14" t="n">
-        <v>0.137</v>
+        <v>0.5301</v>
       </c>
       <c r="M14" t="n">
-        <v>27.5441</v>
+        <v>48.9224</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.7036</v>
+        <v>-4.2761</v>
       </c>
       <c r="O14" t="n">
-        <v>-7.3971</v>
+        <v>-3.3747</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.3637</v>
+        <v>-2.5995</v>
       </c>
       <c r="Q14" t="n">
-        <v>-1.2634</v>
+        <v>-1.1772</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1360,12 +1360,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>079940</t>
+          <t>094970</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>가비아</t>
+          <t>제이엠티</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1374,46 +1374,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0374</v>
+        <v>0.0667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3288</v>
+        <v>0.1575</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1976</v>
+        <v>0.2578</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005</v>
+        <v>0.0424</v>
       </c>
       <c r="H15" t="n">
-        <v>0.756</v>
+        <v>0.5686</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6356</v>
+        <v>1.5663</v>
       </c>
       <c r="J15" t="n">
-        <v>5.0533</v>
+        <v>2.1297</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7647</v>
+        <v>0.7168</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5646</v>
+        <v>0.2696</v>
       </c>
       <c r="M15" t="n">
-        <v>46.2409</v>
+        <v>20.1735</v>
       </c>
       <c r="N15" t="n">
-        <v>-4.2761</v>
+        <v>-3.4933</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.3747</v>
+        <v>-7.083</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.7582</v>
+        <v>-1.1613</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1.2045</v>
+        <v>-1.1758</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1424,60 +1424,60 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>094970</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>제이엠티</t>
+          <t>호전실업</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>경기관련소비재</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0667</v>
+        <v>0.053</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1575</v>
+        <v>0.2835</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2578</v>
+        <v>0.1062</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0424</v>
+        <v>0.0375</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5686</v>
+        <v>0.5502</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5663</v>
+        <v>2.0285</v>
       </c>
       <c r="J16" t="n">
-        <v>2.1297</v>
+        <v>2.5946</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7168</v>
+        <v>0.1612</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1312</v>
+        <v>0.2142</v>
       </c>
       <c r="M16" t="n">
-        <v>17.5167</v>
+        <v>29.3389</v>
       </c>
       <c r="N16" t="n">
-        <v>-3.4933</v>
+        <v>-3.5746</v>
       </c>
       <c r="O16" t="n">
-        <v>-7.083</v>
+        <v>-5.6957</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.7719</v>
+        <v>-1.8363</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.116</v>
+        <v>-1.1708</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1488,12 +1488,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>123040</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>호전실업</t>
+          <t>엠에스오토텍</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1502,46 +1502,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.053</v>
+        <v>0.0764</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2835</v>
+        <v>0.223</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1062</v>
+        <v>0.1576</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0375</v>
+        <v>0.0091</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5502</v>
+        <v>0.5002</v>
       </c>
       <c r="I17" t="n">
-        <v>2.0285</v>
+        <v>0.993</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5946</v>
+        <v>1.6356</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1612</v>
+        <v>0.1088</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1366</v>
+        <v>0.2732</v>
       </c>
       <c r="M17" t="n">
-        <v>27.1276</v>
+        <v>39.1085</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.5746</v>
+        <v>-3.8155</v>
       </c>
       <c r="O17" t="n">
-        <v>-5.6957</v>
+        <v>-4.5914</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.8859</v>
+        <v>-2.3822</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.1804</v>
+        <v>-1.1906</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1552,60 +1552,60 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>123040</t>
+          <t>142210</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>엠에스오토텍</t>
+          <t>유니트론텍</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>경기관련소비재</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0764</v>
+        <v>0.0504</v>
       </c>
       <c r="E18" t="n">
-        <v>0.223</v>
+        <v>0.2042</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1576</v>
+        <v>0.0857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0091</v>
+        <v>0.0214</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5002</v>
+        <v>0.9099</v>
       </c>
       <c r="I18" t="n">
-        <v>0.993</v>
+        <v>3.9946</v>
       </c>
       <c r="J18" t="n">
-        <v>1.6356</v>
+        <v>4.5165</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1088</v>
+        <v>0.1575</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2583</v>
+        <v>0.5512</v>
       </c>
       <c r="M18" t="n">
-        <v>40.2506</v>
+        <v>35.49</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.8155</v>
+        <v>-2.7573</v>
       </c>
       <c r="O18" t="n">
-        <v>-4.5914</v>
+        <v>-5.9728</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.5609</v>
+        <v>-2.2466</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.2209</v>
+        <v>-1.1548</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1616,60 +1616,60 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>142210</t>
+          <t>185750</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>유니트론텍</t>
+          <t>종근당</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>건강관리</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0504</v>
+        <v>0.0466</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2042</v>
+        <v>0.4904</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0857</v>
+        <v>0.1095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0214</v>
+        <v>0.0109</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9099</v>
+        <v>1.8093</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9946</v>
+        <v>9.216200000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>4.5165</v>
+        <v>9.7111</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1575</v>
+        <v>0.7506</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4737</v>
+        <v>0.3606</v>
       </c>
       <c r="M19" t="n">
-        <v>36.1499</v>
+        <v>31.3386</v>
       </c>
       <c r="N19" t="n">
-        <v>-2.7573</v>
+        <v>-4.5712</v>
       </c>
       <c r="O19" t="n">
-        <v>-5.9728</v>
+        <v>-3.2616</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.3236</v>
+        <v>-2.1111</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.169</v>
+        <v>-1.1285</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1680,60 +1680,60 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>185750</t>
+          <t>200880</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>종근당</t>
+          <t>서연이화</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>건강관리</t>
+          <t>경기관련소비재</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0466</v>
+        <v>0.0305</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4904</v>
+        <v>0.2343</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1095</v>
+        <v>0.0985</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0109</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1.8093</v>
+        <v>0.5298</v>
       </c>
       <c r="I20" t="n">
-        <v>9.216200000000001</v>
+        <v>2.0729</v>
       </c>
       <c r="J20" t="n">
-        <v>9.7111</v>
+        <v>4.3445</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7506</v>
+        <v>0.1344</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2769</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>30.9568</v>
+        <v>60.4276</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.5712</v>
+        <v>-2.6307</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.2616</v>
+        <v>-3.4902</v>
       </c>
       <c r="P20" t="n">
-        <v>-2.0761</v>
+        <v>-3.3549</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.125</v>
+        <v>-1.0955</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1782,10 +1782,10 @@
         <v>0.6298</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1729</v>
+        <v>0.2019</v>
       </c>
       <c r="M21" t="n">
-        <v>51.2754</v>
+        <v>48.1314</v>
       </c>
       <c r="N21" t="n">
         <v>-4.1242</v>
@@ -1794,10 +1794,10 @@
         <v>-5.0685</v>
       </c>
       <c r="P21" t="n">
-        <v>-2.1928</v>
+        <v>-2.0412</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.2441</v>
+        <v>-1.2183</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/youngdo/henry_quant/model.xlsx
+++ b/youngdo/henry_quant/model.xlsx
@@ -528,60 +528,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000990</t>
+          <t>001800</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DB하이텍</t>
+          <t>오리온홀딩스</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>필수소비재</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0605</v>
+        <v>0.0197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3499</v>
+        <v>0.2203</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2282</v>
+        <v>0.0969</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0265</v>
+        <v>0.0463</v>
       </c>
       <c r="H2" t="n">
-        <v>1.3313</v>
+        <v>0.2254</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6266</v>
+        <v>1.8947</v>
       </c>
       <c r="J2" t="n">
-        <v>5.5008</v>
+        <v>2.8641</v>
       </c>
       <c r="K2" t="n">
-        <v>1.5003</v>
+        <v>0.312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3003</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>31.0964</v>
+        <v>14.9799</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.796</v>
+        <v>-2.6245</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.4475</v>
+        <v>-6.4995</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.7625</v>
+        <v>-1.8014</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.1189</v>
+        <v>-1.113</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -630,10 +630,10 @@
         <v>0.1822</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7355</v>
+        <v>0.7642</v>
       </c>
       <c r="M3" t="n">
-        <v>34.9961</v>
+        <v>34.4908</v>
       </c>
       <c r="N3" t="n">
         <v>-2.5942</v>
@@ -642,10 +642,10 @@
         <v>-6.7764</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.8108</v>
+        <v>-2.8564</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.2926</v>
+        <v>-1.298</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -694,10 +694,10 @@
         <v>0.1724</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6447000000000001</v>
+        <v>0.4904</v>
       </c>
       <c r="M4" t="n">
-        <v>58.4629</v>
+        <v>68.6987</v>
       </c>
       <c r="N4" t="n">
         <v>-2.1593</v>
@@ -706,10 +706,10 @@
         <v>-6.1788</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.0691</v>
+        <v>-3.0235</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.2253</v>
+        <v>-1.2162</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         <v>0.2372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.407</v>
+        <v>0.486</v>
       </c>
       <c r="M5" t="n">
-        <v>31.9116</v>
+        <v>32.3666</v>
       </c>
       <c r="N5" t="n">
         <v>-4.7535</v>
@@ -770,10 +770,10 @@
         <v>-3.7426</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.5221</v>
+        <v>-2.6285</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.2582</v>
+        <v>-1.2733</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -822,22 +822,22 @@
         <v>0.1248</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3261</v>
+        <v>0.3169</v>
       </c>
       <c r="M6" t="n">
-        <v>43.1672</v>
+        <v>40.4759</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.3075</v>
+        <v>-2.3026</v>
       </c>
       <c r="O6" t="n">
-        <v>-6.7251</v>
+        <v>-6.7247</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.2018</v>
+        <v>-2.2746</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.1561</v>
+        <v>-1.1654</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -886,10 +886,10 @@
         <v>0.4414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6098</v>
+        <v>0.5538</v>
       </c>
       <c r="M7" t="n">
-        <v>50.6875</v>
+        <v>47.3432</v>
       </c>
       <c r="N7" t="n">
         <v>-5.1729</v>
@@ -898,10 +898,10 @@
         <v>-1.6466</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.0083</v>
+        <v>-2.9931</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.2049</v>
+        <v>-1.2007</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -912,12 +912,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>009300</t>
+          <t>009290</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼아제약</t>
+          <t>광동제약</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -926,46 +926,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0276</v>
+        <v>0.0175</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2933</v>
+        <v>0.3167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.0563</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0246</v>
+        <v>0.0164</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5622</v>
+        <v>0.5796</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5102</v>
+        <v>6.0092</v>
       </c>
       <c r="J8" t="n">
-        <v>5.0991</v>
+        <v>8.297700000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>1.085</v>
+        <v>0.215</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1361</v>
+        <v>0.3429</v>
       </c>
       <c r="M8" t="n">
-        <v>31.2493</v>
+        <v>26.8874</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.2452</v>
+        <v>-2.6472</v>
       </c>
       <c r="O8" t="n">
-        <v>-6.7717</v>
+        <v>-6.7744</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.6912</v>
+        <v>-2.0736</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.1999</v>
+        <v>-1.1824</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -976,60 +976,60 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>011560</t>
+          <t>009300</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>세보엠이씨</t>
+          <t>삼아제약</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>산업재</t>
+          <t>건강관리</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0343</v>
+        <v>0.0276</v>
       </c>
       <c r="E9" t="n">
-        <v>0.137</v>
+        <v>0.2933</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1361</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.055</v>
+        <v>0.0246</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5189</v>
+        <v>0.5622</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6911</v>
+        <v>6.5102</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7833</v>
+        <v>5.0991</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09429999999999999</v>
+        <v>1.085</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2178</v>
+        <v>0.1159</v>
       </c>
       <c r="M9" t="n">
-        <v>45.7599</v>
+        <v>28.918</v>
       </c>
       <c r="N9" t="n">
-        <v>-2.9813</v>
+        <v>-3.2569</v>
       </c>
       <c r="O9" t="n">
-        <v>-6.3286</v>
+        <v>-6.7691</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.5733</v>
+        <v>-1.7355</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.2657</v>
+        <v>-1.2071</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1040,60 +1040,60 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>032640</t>
+          <t>011560</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG유플러스</t>
+          <t>세보엠이씨</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>커뮤니케이션서비스</t>
+          <t>산업재</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0206</v>
+        <v>0.0343</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7077</v>
+        <v>0.137</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1718</v>
+        <v>0.1361</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0623</v>
+        <v>0.055</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5389</v>
+        <v>0.5189</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3334</v>
+        <v>1.6911</v>
       </c>
       <c r="J10" t="n">
-        <v>6.5248</v>
+        <v>3.7833</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3237</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0152</v>
+        <v>0.2023</v>
       </c>
       <c r="M10" t="n">
-        <v>5.0988</v>
+        <v>42.7391</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.9161</v>
+        <v>-2.9813</v>
       </c>
       <c r="O10" t="n">
-        <v>-7.2172</v>
+        <v>-6.3286</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.7832</v>
+        <v>-2.4772</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1.1823</v>
+        <v>-1.2491</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1104,60 +1104,60 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>054040</t>
+          <t>032640</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한국컴퓨터</t>
+          <t>LG유플러스</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>커뮤니케이션서비스</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0359</v>
+        <v>0.0206</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1767</v>
+        <v>0.7077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123</v>
+        <v>0.1718</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0494</v>
+        <v>0.0623</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6379</v>
+        <v>0.5389</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8541</v>
+        <v>1.3334</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4438</v>
+        <v>6.5248</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1796</v>
+        <v>0.3237</v>
       </c>
       <c r="L11" t="n">
-        <v>0.797</v>
+        <v>-0.0275</v>
       </c>
       <c r="M11" t="n">
-        <v>31.836</v>
+        <v>3.6607</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.6638</v>
+        <v>-3.9161</v>
       </c>
       <c r="O11" t="n">
-        <v>-7.2552</v>
+        <v>-7.2172</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.3553</v>
+        <v>-0.7531</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.272</v>
+        <v>-1.1772</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1168,60 +1168,60 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>054670</t>
+          <t>054040</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>대한뉴팜</t>
+          <t>한국컴퓨터</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>건강관리</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D12" t="n">
+        <v>0.0359</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1767</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.0494</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.5571</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1164</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0113</v>
-      </c>
       <c r="H12" t="n">
-        <v>1.2095</v>
+        <v>0.6379</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4307</v>
+        <v>3.8541</v>
       </c>
       <c r="J12" t="n">
-        <v>6.1215</v>
+        <v>4.4438</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6175</v>
+        <v>0.1796</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0463</v>
+        <v>0.9507</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0521</v>
+        <v>31.1752</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.7505</v>
+        <v>-2.6654</v>
       </c>
       <c r="O12" t="n">
-        <v>-4.8374</v>
+        <v>-7.2541</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.9564</v>
+        <v>-2.4286</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1.1082</v>
+        <v>-1.282</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1232,60 +1232,60 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>069510</t>
+          <t>054670</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>에스텍</t>
+          <t>대한뉴팜</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>건강관리</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0381</v>
+        <v>0.0494</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2197</v>
+        <v>0.5571</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2201</v>
+        <v>0.1164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0362</v>
+        <v>0.0113</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6318</v>
+        <v>1.2095</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5876</v>
+        <v>6.4307</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1438</v>
+        <v>6.1215</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2146</v>
+        <v>0.6175</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1453</v>
+        <v>0.1021</v>
       </c>
       <c r="M13" t="n">
-        <v>28.2143</v>
+        <v>18.7634</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.7036</v>
+        <v>-4.7505</v>
       </c>
       <c r="O13" t="n">
-        <v>-7.3971</v>
+        <v>-4.835</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.1576</v>
+        <v>-1.3962</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.2295</v>
+        <v>-1.1761</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1296,12 +1296,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>079940</t>
+          <t>069510</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>가비아</t>
+          <t>에스텍</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1310,46 +1310,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0374</v>
+        <v>0.0381</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3288</v>
+        <v>0.2197</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1976</v>
+        <v>0.2201</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005</v>
+        <v>0.0362</v>
       </c>
       <c r="H14" t="n">
-        <v>0.756</v>
+        <v>0.6318</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6356</v>
+        <v>1.5876</v>
       </c>
       <c r="J14" t="n">
-        <v>5.0533</v>
+        <v>4.1438</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7647</v>
+        <v>0.2146</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5301</v>
+        <v>0.1918</v>
       </c>
       <c r="M14" t="n">
-        <v>48.9224</v>
+        <v>28.0894</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.2761</v>
+        <v>-3.7011</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.3747</v>
+        <v>-7.3959</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.5995</v>
+        <v>-1.5058</v>
       </c>
       <c r="Q14" t="n">
-        <v>-1.1772</v>
+        <v>-1.2828</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1360,12 +1360,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>094970</t>
+          <t>079940</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>제이엠티</t>
+          <t>가비아</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1374,46 +1374,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0667</v>
+        <v>0.0374</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1575</v>
+        <v>0.3288</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2578</v>
+        <v>0.1976</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0424</v>
+        <v>0.005</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5686</v>
+        <v>0.756</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5663</v>
+        <v>2.6356</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1297</v>
+        <v>5.0533</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7168</v>
+        <v>0.7647</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2696</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>20.1735</v>
+        <v>48.9749</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.4933</v>
+        <v>-4.2804</v>
       </c>
       <c r="O15" t="n">
-        <v>-7.083</v>
+        <v>-3.3718</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.1613</v>
+        <v>-2.748</v>
       </c>
       <c r="Q15" t="n">
-        <v>-1.1758</v>
+        <v>-1.1991</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1424,60 +1424,60 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>094970</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>호전실업</t>
+          <t>제이엠티</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>경기관련소비재</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.053</v>
+        <v>0.0667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2835</v>
+        <v>0.1575</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1062</v>
+        <v>0.2578</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0375</v>
+        <v>0.0424</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5502</v>
+        <v>0.5686</v>
       </c>
       <c r="I16" t="n">
-        <v>2.0285</v>
+        <v>1.5663</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5946</v>
+        <v>2.1297</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1612</v>
+        <v>0.7168</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2142</v>
+        <v>0.3883</v>
       </c>
       <c r="M16" t="n">
-        <v>29.3389</v>
+        <v>17.1487</v>
       </c>
       <c r="N16" t="n">
-        <v>-3.5746</v>
+        <v>-3.4904</v>
       </c>
       <c r="O16" t="n">
-        <v>-5.6957</v>
+        <v>-7.0808</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.8363</v>
+        <v>-1.3358</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.1708</v>
+        <v>-1.2018</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1488,12 +1488,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>123040</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>엠에스오토텍</t>
+          <t>호전실업</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1502,46 +1502,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0764</v>
+        <v>0.053</v>
       </c>
       <c r="E17" t="n">
-        <v>0.223</v>
+        <v>0.2835</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1576</v>
+        <v>0.1062</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0091</v>
+        <v>0.0375</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5002</v>
+        <v>0.5502</v>
       </c>
       <c r="I17" t="n">
-        <v>0.993</v>
+        <v>2.0285</v>
       </c>
       <c r="J17" t="n">
-        <v>1.6356</v>
+        <v>2.5946</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1088</v>
+        <v>0.1612</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2732</v>
+        <v>0.2069</v>
       </c>
       <c r="M17" t="n">
-        <v>39.1085</v>
+        <v>29.5808</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.8155</v>
+        <v>-3.5746</v>
       </c>
       <c r="O17" t="n">
-        <v>-4.5914</v>
+        <v>-5.6957</v>
       </c>
       <c r="P17" t="n">
-        <v>-2.3822</v>
+        <v>-1.9355</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.1906</v>
+        <v>-1.1851</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1552,60 +1552,60 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>142210</t>
+          <t>123040</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>유니트론텍</t>
+          <t>엠에스오토텍</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>경기관련소비재</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0504</v>
+        <v>0.0764</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2042</v>
+        <v>0.223</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0857</v>
+        <v>0.1576</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0214</v>
+        <v>0.0091</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9099</v>
+        <v>0.5002</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9946</v>
+        <v>0.993</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5165</v>
+        <v>1.6356</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1575</v>
+        <v>0.1088</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5512</v>
+        <v>0.3291</v>
       </c>
       <c r="M18" t="n">
-        <v>35.49</v>
+        <v>38.4455</v>
       </c>
       <c r="N18" t="n">
-        <v>-2.7573</v>
+        <v>-3.8155</v>
       </c>
       <c r="O18" t="n">
-        <v>-5.9728</v>
+        <v>-4.5914</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.2466</v>
+        <v>-2.4616</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.1548</v>
+        <v>-1.2016</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1616,60 +1616,60 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>185750</t>
+          <t>142210</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>종근당</t>
+          <t>유니트론텍</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>건강관리</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0466</v>
+        <v>0.0504</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4904</v>
+        <v>0.2042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1095</v>
+        <v>0.0857</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0109</v>
+        <v>0.0214</v>
       </c>
       <c r="H19" t="n">
-        <v>1.8093</v>
+        <v>0.9099</v>
       </c>
       <c r="I19" t="n">
-        <v>9.216200000000001</v>
+        <v>3.9946</v>
       </c>
       <c r="J19" t="n">
-        <v>9.7111</v>
+        <v>4.5165</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7506</v>
+        <v>0.1575</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3606</v>
+        <v>0.5355</v>
       </c>
       <c r="M19" t="n">
-        <v>31.3386</v>
+        <v>34.7969</v>
       </c>
       <c r="N19" t="n">
-        <v>-4.5712</v>
+        <v>-2.759</v>
       </c>
       <c r="O19" t="n">
-        <v>-3.2616</v>
+        <v>-5.9711</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.1111</v>
+        <v>-2.3024</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.1285</v>
+        <v>-1.1622</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1680,60 +1680,60 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>200880</t>
+          <t>185750</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>서연이화</t>
+          <t>종근당</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>경기관련소비재</t>
+          <t>건강관리</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0305</v>
+        <v>0.0466</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2343</v>
+        <v>0.4904</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0985</v>
+        <v>0.1095</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0109</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5298</v>
+        <v>1.8093</v>
       </c>
       <c r="I20" t="n">
-        <v>2.0729</v>
+        <v>9.216200000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3445</v>
+        <v>9.7111</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1344</v>
+        <v>0.7506</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>0.3712</v>
       </c>
       <c r="M20" t="n">
-        <v>60.4276</v>
+        <v>31.4615</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.6307</v>
+        <v>-4.5712</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.4902</v>
+        <v>-3.2569</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.3549</v>
+        <v>-2.2607</v>
       </c>
       <c r="Q20" t="n">
-        <v>-1.0955</v>
+        <v>-1.1502</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1782,22 +1782,22 @@
         <v>0.6298</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2019</v>
+        <v>0.1925</v>
       </c>
       <c r="M21" t="n">
-        <v>48.1314</v>
+        <v>45.9746</v>
       </c>
       <c r="N21" t="n">
-        <v>-4.1242</v>
+        <v>-4.1224</v>
       </c>
       <c r="O21" t="n">
-        <v>-5.0685</v>
+        <v>-5.0645</v>
       </c>
       <c r="P21" t="n">
-        <v>-2.0412</v>
+        <v>-2.0734</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.2183</v>
+        <v>-1.2215</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
